--- a/ValueSet-fungal-infections.xlsx
+++ b/ValueSet-fungal-infections.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -93,34 +93,22 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>53326005</t>
-  </si>
-  <si>
-    <t>Candida albicans (organism)</t>
-  </si>
-  <si>
-    <t>2429008</t>
-  </si>
-  <si>
-    <t>Aspergillus (organism)</t>
+    <t>83062006</t>
+  </si>
+  <si>
+    <t>Infection caused by Candida albicans (disorder)</t>
+  </si>
+  <si>
+    <t>65553006</t>
+  </si>
+  <si>
+    <t>Aspergillosis (disorder)</t>
   </si>
   <si>
     <t>74964007</t>
   </si>
   <si>
     <t>Other (qualifier value)</t>
-  </si>
-  <si>
-    <t>260413007</t>
-  </si>
-  <si>
-    <t>None (qualifier value)</t>
-  </si>
-  <si>
-    <t>261665006</t>
-  </si>
-  <si>
-    <t>Unknown (qualifier value)</t>
   </si>
   <si>
     <t/>
@@ -386,7 +374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,31 +421,15 @@
         <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
